--- a/Apple/App Store 上线需要的内容.xlsx
+++ b/Apple/App Store 上线需要的内容.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2320" yWindow="0" windowWidth="24540" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24540" windowHeight="15620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>应用描述，目前没看到字数闲置，但是多用户也不看</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Keywords</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -174,6 +170,10 @@
   </si>
   <si>
     <t>App使用屏幕截图 1-5张，要能展示App功能和特色</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用描述，目前没看到字数限制，但是很多用户也不看，所以最好简洁</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +600,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -617,7 +617,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -625,10 +625,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -650,7 +650,7 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -661,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -669,10 +669,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -680,10 +680,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -694,7 +694,7 @@
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -702,109 +702,109 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="B11" t="s">
-        <v>18</v>
-      </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
         <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
         <v>30</v>
       </c>
-      <c r="B18" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
